--- a/data/n2v/tables/model-1-1325-20230813-21.xlsx
+++ b/data/n2v/tables/model-1-1325-20230813-21.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="C790" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="C922" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         </is>
       </c>
       <c r="C958" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="C1246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1246" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         </is>
       </c>
       <c r="C1247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1247" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="C1282" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="C1287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         </is>
       </c>
       <c r="C1300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1300" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         </is>
       </c>
       <c r="C1305" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1305" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1307" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
         </is>
       </c>
       <c r="C1313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="C1329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         </is>
       </c>
       <c r="C1345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="C1374" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         </is>
       </c>
       <c r="C1378" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         </is>
       </c>
       <c r="C1386" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="C1396" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         </is>
       </c>
       <c r="C1400" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
@@ -25642,7 +25642,7 @@
         </is>
       </c>
       <c r="C1401" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         </is>
       </c>
       <c r="C1413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1413" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="C1421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="C1429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1433" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         </is>
       </c>
       <c r="C1436" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         </is>
       </c>
       <c r="C1447" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         </is>
       </c>
       <c r="C1452" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         </is>
       </c>
       <c r="C1464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         </is>
       </c>
       <c r="C1471" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         </is>
       </c>
       <c r="C1475" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         </is>
       </c>
       <c r="C1477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1482" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         </is>
       </c>
       <c r="C1487" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         </is>
       </c>
       <c r="C1488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
